--- a/AOS_CreateAndDisplayOrder/Default.xlsx
+++ b/AOS_CreateAndDisplayOrder/Default.xlsx
@@ -15,21 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
-  <si>
-    <t>645c7d14746ae1a49dce491dc4dafe12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>password_EncryptedText1</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>password_EncryptedText</t>
-  </si>
-  <si>
-    <t>645c7d35bedceb321fc517c83588c74e</t>
   </si>
   <si>
     <t>username_Text</t>
@@ -177,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -185,43 +176,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -520,36 +481,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="3" width="9.41796875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.8984375" style="2" customWidth="1"/>
+    <col min="1" max="3" width="9.41796875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -567,7 +519,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="2" customWidth="1"/>
+    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1"/>
